--- a/LAJEADO.xlsx
+++ b/LAJEADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD0FD90F-DC7F-43DD-81AE-F54807F0B9ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E31F1A9-5695-4E6C-96A8-F058075CC8B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,20 +21,7 @@
     <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
     <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1101,7 +1088,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1161,36 +1148,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1229,14 +1192,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1282,7 +1240,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{90DF991E-8166-4C34-A563-889F74945824}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{927BBB9D-A16F-4B81-A361-7ED5DD03C2D3}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1312,10 +1270,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{567DA7B3-6F62-4FAC-942B-1661B7642E8F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23EB9C86-EF13-4A1A-808F-841BB7592C1F}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1353,7 +1311,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E332393-A4F4-472E-ADB7-B3F947F61B62}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85D7B839-DEAF-4F14-BC26-96100E4703DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1416,7 +1374,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FE0A5BF-854E-4A4F-97D5-BCCD7756E182}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{861437E7-5D40-45EF-8B4A-4F12CC97A955}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1435,7 +1393,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E8A3CB4-CB33-3E66-0CB7-6FB290F2EE46}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{032858FD-DF23-D5B3-F2F4-2087D5A996B8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1484,7 +1442,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86D8D74D-7360-AE61-C130-1A293FF4DE0E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A574215-B06E-0906-8BB2-506783652661}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1503,7 +1461,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A106AE4F-B349-FA11-D5C6-348DF393B127}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{055F47B8-0B52-09F8-4949-00CE279F5314}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1534,7 +1492,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C60C5521-9ED0-CB7E-82D8-B9DF9D53C948}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B62473D3-B13C-9BFF-03EA-C0BD0092F6C4}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1565,7 +1523,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9C87DD1-7171-2C8F-949F-8194391D4DBD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB5A2254-542A-7501-2788-73408EB0051A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1608,7 +1566,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{183BF392-C312-4BA6-94C8-838BD26DADA7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22F8BE29-3074-4C63-982F-38CD150E8BD7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1646,7 +1604,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{608EB8DC-7A58-4C45-AC81-3DD517B37EAF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A17913B5-4FF2-4AD4-91DD-64E71D1D86D7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1689,7 +1647,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10838FBF-43B5-4CBF-BD2D-8A4D8283429D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4494DA02-20E0-482D-8EFB-F4E3C9DF3FDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2002,7 +1960,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9300D0F-B5AC-4BA4-8428-E8638C6864DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC439E4-7631-4F10-8173-FEE392EDC605}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2014,98 +1972,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="37"/>
-    <col min="6" max="6" width="2" style="37" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="37" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="37"/>
+    <col min="1" max="5" width="12.5703125" style="34"/>
+    <col min="6" max="6" width="2" style="34" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="34" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="36"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="36"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="36"/>
+      <c r="F3" s="33"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="36"/>
+      <c r="F4" s="33"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="36"/>
+      <c r="F5" s="33"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="36"/>
+      <c r="F6" s="33"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="36"/>
+      <c r="F7" s="33"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="36"/>
+      <c r="F8" s="33"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="36"/>
+      <c r="F9" s="33"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="36"/>
+      <c r="F10" s="33"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="36"/>
+      <c r="F11" s="33"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="36"/>
+      <c r="F12" s="33"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="36"/>
+      <c r="F13" s="33"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="36"/>
+      <c r="F14" s="33"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="36"/>
+      <c r="F15" s="33"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="36"/>
+      <c r="F16" s="33"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="36"/>
+      <c r="F17" s="33"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="36"/>
+      <c r="F18" s="33"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="36"/>
+      <c r="F19" s="33"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="36"/>
+      <c r="F20" s="33"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="36"/>
+      <c r="F21" s="33"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="36"/>
+      <c r="F22" s="33"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="36"/>
+      <c r="F23" s="33"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="36"/>
+      <c r="F24" s="33"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="36"/>
+      <c r="F25" s="33"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="36"/>
+      <c r="F26" s="33"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="36"/>
+      <c r="F27" s="33"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="36"/>
+      <c r="F28" s="33"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="36"/>
+      <c r="F29" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5499,19 +5457,19 @@
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="2" t="s">
         <v>280</v>
       </c>
     </row>
@@ -5534,79 +5492,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="17" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="19" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="19" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="19" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="19" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="19" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="19" t="s">
         <v>290</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="19" t="s">
         <v>284</v>
       </c>
     </row>
@@ -5631,54 +5589,55 @@
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="30.85546875" customWidth="1"/>
+    <col min="9" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="42.140625" customWidth="1"/>
+    <col min="14" max="15" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="22" t="s">
         <v>296</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="22" t="s">
         <v>297</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="20" t="s">
         <v>300</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="20" t="s">
         <v>301</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="20" t="s">
         <v>303</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="20" t="s">
         <v>304</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="20" t="s">
         <v>305</v>
       </c>
     </row>
@@ -5689,43 +5648,43 @@
       <c r="B2" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="23">
         <v>45261</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="24">
         <v>9046</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="24" t="s">
         <v>307</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="25">
         <v>31114</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="25">
         <v>4732</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="26" t="s">
         <v>308</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="26" t="s">
         <v>308</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="26" t="s">
         <v>308</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="26" t="s">
         <v>308</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="26" t="s">
         <v>308</v>
       </c>
-      <c r="M2" s="30" t="s">
+      <c r="M2" s="27" t="s">
         <v>309</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="O2" s="30" t="s">
+      <c r="O2" s="27" t="s">
         <v>309</v>
       </c>
     </row>
@@ -5756,25 +5715,24 @@
       <c r="B1" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="28" t="s">
         <v>312</v>
       </c>
-      <c r="E1" s="32">
-        <f>SUM(B2:B157)</f>
+      <c r="E1" s="29">
+        <v>15072</v>
+      </c>
+      <c r="F1" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>313</v>
+      </c>
+      <c r="B2" s="32">
         <v>167</v>
       </c>
-      <c r="F1" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>313</v>
-      </c>
-      <c r="B2" s="35">
-        <v>167</v>
-      </c>
-      <c r="C2" s="33">
+      <c r="C2" s="30">
         <v>1.104351276286205E-2</v>
       </c>
     </row>

--- a/LAJEADO.xlsx
+++ b/LAJEADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E31F1A9-5695-4E6C-96A8-F058075CC8B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{63AE8A57-7FE6-4CB9-949D-8314741DB4C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1240,7 +1240,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{927BBB9D-A16F-4B81-A361-7ED5DD03C2D3}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{11E2D780-C80C-4DA7-AE38-AA8935509C6E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1270,10 +1270,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23EB9C86-EF13-4A1A-808F-841BB7592C1F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CBAB4C2-9925-4A3E-8685-6E81EE219D99}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1311,7 +1311,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85D7B839-DEAF-4F14-BC26-96100E4703DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{652ED8E8-A787-41F3-8637-76489B52A9AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1374,7 +1374,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{861437E7-5D40-45EF-8B4A-4F12CC97A955}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1C1DE98-5C21-4154-A80D-BD9E000309A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1393,7 +1393,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{032858FD-DF23-D5B3-F2F4-2087D5A996B8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{288B3E90-95EF-34E1-0620-7430378BD940}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1442,7 +1442,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A574215-B06E-0906-8BB2-506783652661}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D500E2DD-C11D-431D-8B5F-235986E4E53B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1461,7 +1461,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{055F47B8-0B52-09F8-4949-00CE279F5314}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB2B94BE-18B8-F1AA-4FAE-B9BC4DD2B117}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1492,7 +1492,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B62473D3-B13C-9BFF-03EA-C0BD0092F6C4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CCE19F2-9FBF-E6FB-B2EF-36D006E8DAC9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1523,7 +1523,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB5A2254-542A-7501-2788-73408EB0051A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{584EE7C6-6B34-4957-AFA0-A2B7099A9A94}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1566,7 +1566,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22F8BE29-3074-4C63-982F-38CD150E8BD7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE1106C5-D59B-4029-A488-C806CF2305A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1604,7 +1604,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A17913B5-4FF2-4AD4-91DD-64E71D1D86D7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5D43704-4FA3-4F40-A99C-89B6765D0398}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1647,7 +1647,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4494DA02-20E0-482D-8EFB-F4E3C9DF3FDD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23EBB585-89B0-49CE-81D4-DCC064FF0E49}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1960,7 +1960,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC439E4-7631-4F10-8173-FEE392EDC605}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F501E9E-A8FB-4F89-A47F-64A5A20B6B30}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/LAJEADO.xlsx
+++ b/LAJEADO.xlsx
@@ -8,25 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63AE8A57-7FE6-4CB9-949D-8314741DB4C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EF56802-9B04-4A65-91C7-ED9C8062A362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="7" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="6" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="311">
   <si>
     <t>COMARCA</t>
   </si>
@@ -959,15 +958,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>LAJEADO</t>
   </si>
 </sst>
 </file>
@@ -1153,7 +1143,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1220,27 +1210,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{11E2D780-C80C-4DA7-AE38-AA8935509C6E}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{78E89710-C987-407C-A939-EBBA34720EED}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1270,10 +1245,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CBAB4C2-9925-4A3E-8685-6E81EE219D99}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC3CBEB2-D958-4D50-95BD-DAC00ADBA62C}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1311,7 +1286,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{652ED8E8-A787-41F3-8637-76489B52A9AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28B44620-2E9C-47D8-9FD2-705C1399ABC6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1374,7 +1349,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1C1DE98-5C21-4154-A80D-BD9E000309A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{104F593B-A9FC-4169-9B59-65ADF06A76BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1393,7 +1368,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{288B3E90-95EF-34E1-0620-7430378BD940}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C5C2269-123A-139C-61E9-16D7C11AF49F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1442,7 +1417,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D500E2DD-C11D-431D-8B5F-235986E4E53B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5431FE7E-AF9C-AB49-115D-0A21EC1F7728}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1461,7 +1436,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB2B94BE-18B8-F1AA-4FAE-B9BC4DD2B117}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2BC9645-F9CC-49EA-DFA7-0F4ECAC831E9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1492,7 +1467,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CCE19F2-9FBF-E6FB-B2EF-36D006E8DAC9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2CA3F95-0967-508F-9215-A8AED7211855}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1523,7 +1498,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{584EE7C6-6B34-4957-AFA0-A2B7099A9A94}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D35E3720-6A01-2DDE-B47A-7256549B3793}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1566,7 +1541,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE1106C5-D59B-4029-A488-C806CF2305A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92D19ECD-AE78-441C-A0F4-22AEA6C3A624}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1604,7 +1579,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5D43704-4FA3-4F40-A99C-89B6765D0398}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82AEC66E-CAF0-44B8-9D5B-2BA761B6750D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1647,7 +1622,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23EBB585-89B0-49CE-81D4-DCC064FF0E49}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC2D6C8D-8F86-4882-8DFE-142A95E39DD8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1960,7 +1935,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F501E9E-A8FB-4F89-A47F-64A5A20B6B30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3477F57D-E81A-4CDB-B64A-2E2FAA82311B}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1972,98 +1947,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="34"/>
-    <col min="6" max="6" width="2" style="34" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="34" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="34"/>
+    <col min="1" max="5" width="12.5703125" style="29"/>
+    <col min="6" max="6" width="2" style="29" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="29" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="33"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="33"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="33"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="33"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="33"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="33"/>
+      <c r="F6" s="28"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="33"/>
+      <c r="F7" s="28"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="33"/>
+      <c r="F8" s="28"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="33"/>
+      <c r="F9" s="28"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="33"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="33"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="33"/>
+      <c r="F12" s="28"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="33"/>
+      <c r="F13" s="28"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="33"/>
+      <c r="F14" s="28"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="33"/>
+      <c r="F15" s="28"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="33"/>
+      <c r="F16" s="28"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="33"/>
+      <c r="F17" s="28"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="33"/>
+      <c r="F18" s="28"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="33"/>
+      <c r="F19" s="28"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="33"/>
+      <c r="F20" s="28"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="33"/>
+      <c r="F21" s="28"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="33"/>
+      <c r="F22" s="28"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="33"/>
+      <c r="F23" s="28"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="33"/>
+      <c r="F24" s="28"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="33"/>
+      <c r="F25" s="28"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="33"/>
+      <c r="F26" s="28"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="33"/>
+      <c r="F27" s="28"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="33"/>
+      <c r="F28" s="28"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="33"/>
+      <c r="F29" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5691,52 +5666,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>312</v>
-      </c>
-      <c r="E1" s="29">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>313</v>
-      </c>
-      <c r="B2" s="32">
-        <v>167</v>
-      </c>
-      <c r="C2" s="30">
-        <v>1.104351276286205E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/LAJEADO.xlsx
+++ b/LAJEADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EF56802-9B04-4A65-91C7-ED9C8062A362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F830CF7-9262-4AF7-AD14-669626126455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1215,7 +1215,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{78E89710-C987-407C-A939-EBBA34720EED}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{D0A6FE4D-266C-4144-B6DE-5DF2A8611A13}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1245,10 +1245,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC3CBEB2-D958-4D50-95BD-DAC00ADBA62C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56D881D9-9006-4DB2-B414-FB359AC2BD04}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1286,7 +1286,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28B44620-2E9C-47D8-9FD2-705C1399ABC6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C4DE2A7-F46F-46EE-8500-FFE2D90BD413}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1349,7 +1349,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{104F593B-A9FC-4169-9B59-65ADF06A76BC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05D1D4DB-05BD-4752-B223-00816F66C0AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1368,7 +1368,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C5C2269-123A-139C-61E9-16D7C11AF49F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B0401C8-CFD3-20D3-F170-83D2215B09E7}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1417,7 +1417,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5431FE7E-AF9C-AB49-115D-0A21EC1F7728}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10289499-859F-1E95-37CD-5D01B1CFA701}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1436,7 +1436,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2BC9645-F9CC-49EA-DFA7-0F4ECAC831E9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F677DB4-C2A3-39F0-D7EE-47AFE4CC5A4A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1467,7 +1467,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2CA3F95-0967-508F-9215-A8AED7211855}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEC64612-CA9E-07DB-BA0B-2CAF9528C41B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1498,7 +1498,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D35E3720-6A01-2DDE-B47A-7256549B3793}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC622F18-1896-FA12-FC31-571C0DCD9AEA}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1541,7 +1541,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92D19ECD-AE78-441C-A0F4-22AEA6C3A624}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7008F4D3-924F-40B7-9305-A3D276F93B1B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1579,7 +1579,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82AEC66E-CAF0-44B8-9D5B-2BA761B6750D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FCD8DA3-021F-4F19-BD91-923FA265105B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1604,50 +1604,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC2D6C8D-8F86-4882-8DFE-142A95E39DD8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1935,7 +1891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3477F57D-E81A-4CDB-B64A-2E2FAA82311B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B1F5803-B2B7-4224-B726-4FB83482BFBA}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
